--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7273D-6F9E-9D4B-B3E5-BFF5AB564DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2B965-14EF-8D41-BDD2-7ACC431DD3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="760" windowWidth="29820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35740" yWindow="0" windowWidth="29820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -2152,10 +2152,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2169,18 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16169,10 +16169,10 @@
       <c r="C4" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="40" t="s">
         <v>450</v>
       </c>
@@ -16187,10 +16187,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="59">
         <v>2.5</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="39" t="s">
         <v>451</v>
       </c>
@@ -16202,9 +16202,9 @@
       <c r="B6" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="41" t="s">
         <v>454</v>
       </c>
@@ -16219,10 +16219,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="59">
         <v>20</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="39" t="s">
         <v>450</v>
       </c>
@@ -16237,10 +16237,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="59">
         <v>7</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="39" t="s">
         <v>457</v>
       </c>
@@ -16252,9 +16252,9 @@
       <c r="B9" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="41" t="s">
         <v>459</v>
       </c>
@@ -16326,7 +16326,7 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="39" t="s">
         <v>462</v>
       </c>
@@ -16339,8 +16339,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="41" t="s">
         <v>467</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="D15" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="39" t="s">
         <v>464</v>
       </c>
@@ -16376,7 +16376,7 @@
       <c r="D16" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="39" t="s">
         <v>450</v>
       </c>
@@ -16391,27 +16391,27 @@
       <c r="C17" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="41" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2B965-14EF-8D41-BDD2-7ACC431DD3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1079E82-ADB6-E644-8098-1A4C6310C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35740" yWindow="0" windowWidth="29820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -2152,22 +2152,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2181,6 +2169,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3702,7 +3702,7 @@
         <v>35</v>
       </c>
       <c r="B46" s="13">
-        <v>311672</v>
+        <v>103890.7681</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>18</v>
@@ -8356,7 +8356,7 @@
         <v>35</v>
       </c>
       <c r="B222" s="13">
-        <v>286659.90000000002</v>
+        <v>95553.31568</v>
       </c>
       <c r="C222" s="12" t="s">
         <v>18</v>
@@ -13104,7 +13104,7 @@
         <v>35</v>
       </c>
       <c r="B392" s="13">
-        <v>366673.3</v>
+        <v>122224.433</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>18</v>
@@ -16122,8 +16122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607540C-5A98-C943-82C9-9BA357D77C9A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16169,10 +16169,10 @@
       <c r="C4" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="40" t="s">
         <v>450</v>
       </c>
@@ -16187,10 +16187,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>2.5</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="39" t="s">
         <v>451</v>
       </c>
@@ -16202,9 +16202,9 @@
       <c r="B6" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="41" t="s">
         <v>454</v>
       </c>
@@ -16219,10 +16219,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="39" t="s">
         <v>450</v>
       </c>
@@ -16237,10 +16237,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="39" t="s">
         <v>457</v>
       </c>
@@ -16252,9 +16252,9 @@
       <c r="B9" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="41" t="s">
         <v>459</v>
       </c>
@@ -16326,7 +16326,7 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="39" t="s">
         <v>462</v>
       </c>
@@ -16339,8 +16339,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
         <v>467</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="D15" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="39" t="s">
         <v>464</v>
       </c>
@@ -16376,7 +16376,7 @@
       <c r="D16" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
         <v>450</v>
       </c>
@@ -16391,27 +16391,27 @@
       <c r="C17" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
